--- a/source/작업행동.xlsx
+++ b/source/작업행동.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_develop\matching\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FB91D-E35A-49B4-BC7E-D2E0141EF615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957D332-366C-4C74-AB77-F0D771A8BDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4620" windowWidth="11625" windowHeight="10425" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
+    <workbookView xWindow="-45" yWindow="525" windowWidth="12615" windowHeight="5460" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,234 @@
   <si>
     <t>슬링벨트, 운반, 크레인, 상태, 슬래그</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프 세트 체크 실시</t>
+  </si>
+  <si>
+    <t>오프, 세트, 체크, 실시</t>
+  </si>
+  <si>
+    <t>Start 버튼 누르기</t>
+  </si>
+  <si>
+    <t>버튼, 누르기</t>
+  </si>
+  <si>
+    <t>부재명 기명 및 자재종류 도장 마킹</t>
+  </si>
+  <si>
+    <t>재명, 기명, 자재, 종류, 도장, 마킹</t>
+  </si>
+  <si>
+    <t>절단 진행중 이상 여부 체크</t>
+  </si>
+  <si>
+    <t>절단, 진행, 이상, 여부, 체크</t>
+  </si>
+  <si>
+    <t>절단중 스크랩 처리</t>
+  </si>
+  <si>
+    <t>절단, 스크랩, 처리</t>
+  </si>
+  <si>
+    <t>A/T 준비 (Air Test)</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>선주선급 입회 검사</t>
+  </si>
+  <si>
+    <t>선주, 선급, 입회, 검사</t>
+  </si>
+  <si>
+    <t>선주선급 지적 POINT 수정 (용접기 및 에어그라인더 사용)</t>
+  </si>
+  <si>
+    <t>선주, 선급, 지적, 수정, 용접기, 에어, 그라인더, 사용</t>
+  </si>
+  <si>
+    <t>수정 용접 및 백 가우징 작업</t>
+  </si>
+  <si>
+    <t>수정, 용접, 백, 우징, 작업</t>
+  </si>
+  <si>
+    <t>외판 조인트 U.T 검사 수행 (에어 그라인더, 베이비 그라인더)</t>
+  </si>
+  <si>
+    <t>외판, 조인트, 검사, 수행, 에어, 그라인더, 베이비, 그라인더</t>
+  </si>
+  <si>
+    <t>1차 사상 작업 (에어 그라인더, 베이비 그라인더)</t>
+  </si>
+  <si>
+    <t>차, 사상, 작업, 에어, 그라인더, 베이비, 그라인더</t>
+  </si>
+  <si>
+    <t>2차 사상 작업 , RC 작업 페퍼 그라인딩 (에어 그라인더, 베이비 그라인더)</t>
+  </si>
+  <si>
+    <t>차, 사상, 작업, 작업, 페퍼, 그라인딩, 에어, 그라인더, 베이비, 그라인더</t>
+  </si>
+  <si>
+    <t>MINI 캐리지 반자동 용접</t>
+  </si>
+  <si>
+    <t>캐리지, 반자동, 용접</t>
+  </si>
+  <si>
+    <t>수동 용접 및 라운드 용접(FCAW)</t>
+  </si>
+  <si>
+    <t>수동, 용접, 라운드, 용접</t>
+  </si>
+  <si>
+    <t>수동 용접(FCAW)</t>
+  </si>
+  <si>
+    <t>수동, 용접</t>
+  </si>
+  <si>
+    <t>외판 조인트 용접 작업</t>
+  </si>
+  <si>
+    <t>외판, 조인트, 용접, 작업</t>
+  </si>
+  <si>
+    <t>PIPE 조인트 볼팅 작업</t>
+  </si>
+  <si>
+    <t>조인트, 볼팅, 작업</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작업대 및 사다리 철거 </t>
+  </si>
+  <si>
+    <t>작업대, 사다리, 철거</t>
+  </si>
+  <si>
+    <t>사전 도면 확인</t>
+  </si>
+  <si>
+    <t>사전, 도면, 확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">외판 조인트 재개선 시공 </t>
+  </si>
+  <si>
+    <t>외판, 조인트, 개선, 시공</t>
+  </si>
+  <si>
+    <t>조인트 취부 작업</t>
+  </si>
+  <si>
+    <t>조인트, 취부, 작업</t>
+  </si>
+  <si>
+    <t>치공구, 3M 피스 및 야피스 준비</t>
+  </si>
+  <si>
+    <t>공구, 피스, 피스, 준비</t>
+  </si>
+  <si>
+    <t>Hopper 블록 탑재 셋팅 취부</t>
+  </si>
+  <si>
+    <t>블록, 탑재, 셋팅, 취부</t>
+  </si>
+  <si>
+    <t>PE 조인트 마킹</t>
+  </si>
+  <si>
+    <t>조인트, 마킹</t>
+  </si>
+  <si>
+    <t>보강 용접</t>
+  </si>
+  <si>
+    <t>보강, 용접</t>
+  </si>
+  <si>
+    <t>행_6</t>
+  </si>
+  <si>
+    <t>행_7</t>
+  </si>
+  <si>
+    <t>행_8</t>
+  </si>
+  <si>
+    <t>행_9</t>
+  </si>
+  <si>
+    <t>행_10</t>
+  </si>
+  <si>
+    <t>행_11</t>
+  </si>
+  <si>
+    <t>행_12</t>
+  </si>
+  <si>
+    <t>행_13</t>
+  </si>
+  <si>
+    <t>행_14</t>
+  </si>
+  <si>
+    <t>행_15</t>
+  </si>
+  <si>
+    <t>행_16</t>
+  </si>
+  <si>
+    <t>행_17</t>
+  </si>
+  <si>
+    <t>행_18</t>
+  </si>
+  <si>
+    <t>행_19</t>
+  </si>
+  <si>
+    <t>행_20</t>
+  </si>
+  <si>
+    <t>행_21</t>
+  </si>
+  <si>
+    <t>행_22</t>
+  </si>
+  <si>
+    <t>행_23</t>
+  </si>
+  <si>
+    <t>행_24</t>
+  </si>
+  <si>
+    <t>행_25</t>
+  </si>
+  <si>
+    <t>행_26</t>
+  </si>
+  <si>
+    <t>행_27</t>
+  </si>
+  <si>
+    <t>행_28</t>
+  </si>
+  <si>
+    <t>행_29</t>
+  </si>
+  <si>
+    <t>행_30</t>
+  </si>
+  <si>
+    <t>행_31</t>
   </si>
 </sst>
 </file>
@@ -459,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BEB60D-F08D-4AA7-B205-DF61B0E4BD78}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,22 +766,290 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/source/작업행동.xlsx
+++ b/source/작업행동.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_develop\matching\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957D332-366C-4C74-AB77-F0D771A8BDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448688E0-9CBA-4982-A98A-7B2D8A67F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="525" windowWidth="12615" windowHeight="5460" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
+    <workbookView xWindow="495" yWindow="0" windowWidth="12615" windowHeight="15450" xr2:uid="{7DE75812-C78E-412C-9C8F-3FB0D22FA83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>행_30</t>
-  </si>
-  <si>
-    <t>행_31</t>
   </si>
 </sst>
 </file>
@@ -687,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BEB60D-F08D-4AA7-B205-DF61B0E4BD78}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -752,17 +749,22 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -770,10 +772,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -781,10 +783,10 @@
         <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -792,10 +794,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -803,10 +805,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -814,21 +816,21 @@
         <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,10 +838,10 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,10 +849,10 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,10 +860,10 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,10 +871,10 @@
         <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,10 +882,10 @@
         <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -891,10 +893,10 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,10 +904,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,10 +915,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,10 +926,10 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,10 +937,10 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,10 +948,10 @@
         <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -957,10 +959,10 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -968,10 +970,10 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -979,10 +981,10 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -990,10 +992,10 @@
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1001,10 +1003,10 @@
         <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,10 +1014,10 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,10 +1025,10 @@
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,20 +1036,9 @@
         <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
